--- a/SKILLS.xlsx
+++ b/SKILLS.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP EXCEL\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841ABBAC-245C-4D92-A6C4-E284AC54EA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073F33AC-CF7C-48CF-AAC6-53C301671D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>SKILLS</t>
   </si>
@@ -34,9 +34,6 @@
     <t>DEVELOPMENT</t>
   </si>
   <si>
-    <t>BRANDING/MARKETING</t>
-  </si>
-  <si>
     <t>DATA ANALYST</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>WEBSITE</t>
   </si>
   <si>
-    <t>DIGITAL MARKETING</t>
-  </si>
-  <si>
     <t>SOCIAL ACCOUNTS</t>
   </si>
   <si>
@@ -104,13 +98,135 @@
   </si>
   <si>
     <t>LINKEDIN PROFILE</t>
+  </si>
+  <si>
+    <t>What can I do ?</t>
+  </si>
+  <si>
+    <t>Money making ways options</t>
+  </si>
+  <si>
+    <t>Sadaf School</t>
+  </si>
+  <si>
+    <t>Jharkhand aushadhalay</t>
+  </si>
+  <si>
+    <t>Stock Market</t>
+  </si>
+  <si>
+    <t>TEACHING(EXCEL/WEB DEV/CS)</t>
+  </si>
+  <si>
+    <t>single panel to manage every social platform like upload or edit</t>
+  </si>
+  <si>
+    <t>DIGITAL MARKETING VIA TEAM</t>
+  </si>
+  <si>
+    <t>don’t go for android or anything else in development cause it will have heavy negative impact on ur expertise /no money</t>
+  </si>
+  <si>
+    <t>OUTSOURCE(TEAM MAKING)/like for frontend/for wordpress plugins</t>
+  </si>
+  <si>
+    <t>DATA ANALYST(learn faster)/be expert here</t>
+  </si>
+  <si>
+    <t>EXCEL WORK/ EXCEL SOFTWARE(be expert here)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WEBSITE DEVELOPMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(need little expertise in backend)/try to outsource</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>you have to be</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>manager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not worker since U are creative &amp; if U will waste time in working  then will loose all creativity and money too</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OUTSOURE only those work which u are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>familiar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with like web / android dev not like acconting/finance/laravel/server security etc since u cant do everything at once and will have -ve impact on ur quality</t>
+    </r>
+  </si>
+  <si>
+    <t>DIGITAL MARKETING(BRANDING/MARKETING)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +272,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11.9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +350,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00421E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,15 +371,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,6 +411,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,144 +741,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6079174-5B4E-4E7F-8697-45329D2AF680}">
-  <dimension ref="A1:Q10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.21875" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="M1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="M1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>8</v>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="M5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>9</v>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+      <c r="M9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="17" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="20" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="C20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="E21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
+    <sortCondition ref="B13:B14"/>
+  </sortState>
+  <mergeCells count="11">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C17:O18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -672,10 +1103,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015BF428-8921-496F-A04C-15D75CAABF43}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="E1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,19 +1117,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="E1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.3">
@@ -705,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.3">
@@ -713,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.3">
@@ -721,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="5:8" x14ac:dyDescent="0.3">

--- a/SKILLS.xlsx
+++ b/SKILLS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP EXCEL\IMP_EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073F33AC-CF7C-48CF-AAC6-53C301671D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2743C1-EC99-4AF0-A795-9477258F04C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>SKILLS</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>DIGITAL MARKETING(BRANDING/MARKETING)</t>
+  </si>
+  <si>
+    <t>DATA SCRAPING</t>
   </si>
 </sst>
 </file>
@@ -400,8 +403,23 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,21 +429,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +748,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,29 +762,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="11"/>
+      <c r="M1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -799,6 +802,9 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
       <c r="M2" s="2">
         <v>1</v>
       </c>
@@ -822,6 +828,9 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
       <c r="M3" s="2">
         <v>2</v>
       </c>
@@ -864,26 +873,26 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="8"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -897,10 +906,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="M11">
@@ -911,10 +920,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="M12">
@@ -925,18 +934,18 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -958,36 +967,36 @@
       <c r="O15" s="9"/>
     </row>
     <row r="17" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="20" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C20" s="9" t="s">
@@ -1021,17 +1030,17 @@
     <sortCondition ref="B13:B14"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="M9:Q9"/>
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="C20:N20"/>
     <mergeCell ref="C15:O15"/>
     <mergeCell ref="C17:O18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
     <cfRule type="iconSet" priority="7">
@@ -1117,12 +1126,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E2" s="2">

--- a/SKILLS.xlsx
+++ b/SKILLS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2743C1-EC99-4AF0-A795-9477258F04C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E72ED20-0043-4290-8F4D-96F89447FE02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="profile_links" sheetId="2" r:id="rId2"/>
+    <sheet name="IDEAS_INCOME" sheetId="3" r:id="rId2"/>
+    <sheet name="profile_links" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>SKILLS</t>
   </si>
@@ -224,12 +225,24 @@
   <si>
     <t>DATA SCRAPING</t>
   </si>
+  <si>
+    <t>INCOME IDEAS</t>
+  </si>
+  <si>
+    <t>MAKE EXCEL TEACHING PROFILE AND GIVE ADS</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT TEACHING PROFILE AND GIVE ADS</t>
+  </si>
+  <si>
+    <t>13 days left</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +340,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -366,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -387,11 +408,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -415,20 +451,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +788,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,25 +806,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="M1" s="12" t="s">
+      <c r="K1" s="9"/>
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -802,9 +842,10 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="K2" s="14"/>
       <c r="M2" s="2">
         <v>1</v>
       </c>
@@ -828,9 +869,10 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="K3" s="14"/>
       <c r="M3" s="2">
         <v>2</v>
       </c>
@@ -872,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -888,7 +930,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -898,6 +940,10 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="15"/>
       <c r="M10">
         <v>1</v>
       </c>
@@ -905,7 +951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -950,97 +996,100 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="17" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="20" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
     <sortCondition ref="B13:B14"/>
   </sortState>
-  <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:Q1"/>
+  <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="M9:Q9"/>
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="C20:N20"/>
     <mergeCell ref="C15:O15"/>
     <mergeCell ref="C17:O18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
     <cfRule type="iconSet" priority="7">
@@ -1111,6 +1160,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660FDC3-40C0-431B-A663-6BEFF0CF8A83}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015BF428-8921-496F-A04C-15D75CAABF43}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="E1:H12"/>

--- a/SKILLS.xlsx
+++ b/SKILLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E72ED20-0043-4290-8F4D-96F89447FE02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6C5E7-5E0B-499B-B665-ECE52727FC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
   </bookViews>
@@ -235,7 +235,7 @@
     <t>DEVELOPMENT TEACHING PROFILE AND GIVE ADS</t>
   </si>
   <si>
-    <t>13 days left</t>
+    <t>12 days left</t>
   </si>
 </sst>
 </file>
@@ -448,13 +448,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -463,12 +461,14 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +788,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,29 +802,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="13"/>
+      <c r="M1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -842,10 +842,10 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="8"/>
       <c r="M2" s="2">
         <v>1</v>
       </c>
@@ -869,10 +869,10 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="8"/>
       <c r="M3" s="2">
         <v>2</v>
       </c>
@@ -915,20 +915,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="10"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:17" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
@@ -940,10 +940,10 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="9"/>
       <c r="M10">
         <v>1</v>
       </c>
@@ -1076,11 +1076,6 @@
     <sortCondition ref="B13:B14"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="M9:Q9"/>
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="C20:N20"/>
     <mergeCell ref="C15:O15"/>
@@ -1090,6 +1085,11 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="M9:Q9"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
     <cfRule type="iconSet" priority="7">
@@ -1221,12 +1221,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E2" s="2">

--- a/SKILLS.xlsx
+++ b/SKILLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6C5E7-5E0B-499B-B665-ECE52727FC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF0F7E0-F697-4D3F-8869-EFDEA7CE469B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>SKILLS</t>
   </si>
@@ -237,12 +237,57 @@
   <si>
     <t>12 days left</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Most </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frustrating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> part is to make </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frontend responsive layout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> since I am not a designer and it takes too much of time</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +388,13 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -448,24 +500,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,10 +837,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6079174-5B4E-4E7F-8697-45329D2AF680}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,25 +858,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="M1" s="14" t="s">
+      <c r="K1" s="11"/>
+      <c r="M1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -842,10 +894,10 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="13"/>
       <c r="M2" s="2">
         <v>1</v>
       </c>
@@ -869,10 +921,10 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="13"/>
       <c r="M3" s="2">
         <v>2</v>
       </c>
@@ -940,10 +992,10 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="14"/>
       <c r="M10">
         <v>1</v>
       </c>
@@ -996,86 +1048,104 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="17" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="20" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="24" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="C24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
     <sortCondition ref="B13:B14"/>
   </sortState>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="C24:O24"/>
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="C20:N20"/>
     <mergeCell ref="C15:O15"/>
@@ -1173,12 +1243,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">

--- a/SKILLS.xlsx
+++ b/SKILLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF0F7E0-F697-4D3F-8869-EFDEA7CE469B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0903DD3-DC84-4F4D-AE59-341C21575E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
   </bookViews>
@@ -840,7 +840,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,21 +1145,21 @@
     <sortCondition ref="B13:B14"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="C24:O24"/>
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="C20:N20"/>
     <mergeCell ref="C15:O15"/>
     <mergeCell ref="C17:O18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="M9:Q9"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
     <cfRule type="iconSet" priority="7">

--- a/SKILLS.xlsx
+++ b/SKILLS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0903DD3-DC84-4F4D-AE59-341C21575E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C25729-7EB3-4AB9-8BA5-FC6CD5BDB8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="IDEAS_INCOME" sheetId="3" r:id="rId2"/>
+    <sheet name="SKILL" sheetId="1" r:id="rId1"/>
+    <sheet name="EEXXPPEERRTT" sheetId="3" r:id="rId2"/>
     <sheet name="profile_links" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>SKILLS</t>
   </si>
@@ -224,18 +224,6 @@
   </si>
   <si>
     <t>DATA SCRAPING</t>
-  </si>
-  <si>
-    <t>INCOME IDEAS</t>
-  </si>
-  <si>
-    <t>MAKE EXCEL TEACHING PROFILE AND GIVE ADS</t>
-  </si>
-  <si>
-    <t>DEVELOPMENT TEACHING PROFILE AND GIVE ADS</t>
-  </si>
-  <si>
-    <t>12 days left</t>
   </si>
   <si>
     <r>
@@ -282,12 +270,54 @@
       <t xml:space="preserve"> since I am not a designer and it takes too much of time</t>
     </r>
   </si>
+  <si>
+    <t>7 days left</t>
+  </si>
+  <si>
+    <t>excel management software ads</t>
+  </si>
+  <si>
+    <t>SKILL</t>
+  </si>
+  <si>
+    <t>PORTFOLIO COLLECTION</t>
+  </si>
+  <si>
+    <t>CREATE_JOBS/OPPORTUNITIES</t>
+  </si>
+  <si>
+    <t>EXCEL MANAGEMENT SOFTWARE VIA ADS</t>
+  </si>
+  <si>
+    <t>EXCEL/WEB DEV TEACHING CLASS VIA ADS(FULL COURSE PREPARED)</t>
+  </si>
+  <si>
+    <t>FREELANCE / OUTSOURCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINAYAK PODDAR LIKE SIMILAR WORK SEARCH </t>
+  </si>
+  <si>
+    <t>GO BAJAJ FIND OPPORTUNITY FOR EXCEL AUTOMATED MANAGEMENT SOFTWARE(VIA MAKING VIDEO OF SOFTWARE…)</t>
+  </si>
+  <si>
+    <t>SL.NO</t>
+  </si>
+  <si>
+    <t>1. EXPERT IN SKILL</t>
+  </si>
+  <si>
+    <t>2. COLLECT PORTFOLIO</t>
+  </si>
+  <si>
+    <t>3. LAUNCH WORK OPPORTUNITY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +425,15 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -479,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -522,6 +561,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +883,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10" s="14"/>
       <c r="M10">
@@ -1031,15 +1074,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -1048,6 +1104,12 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
@@ -1125,7 +1187,7 @@
     </row>
     <row r="24" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1144,7 +1206,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
     <sortCondition ref="B13:B14"/>
   </sortState>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G10:H10"/>
@@ -1231,45 +1296,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660FDC3-40C0-431B-A663-6BEFF0CF8A83}">
-  <dimension ref="A1:D3"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="101.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1281,7 +1386,7 @@
   <dimension ref="E1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SKILLS.xlsx
+++ b/SKILLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C25729-7EB3-4AB9-8BA5-FC6CD5BDB8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED69935-656D-4421-8D26-3E5332AA9A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="SKILL" sheetId="1" r:id="rId1"/>
     <sheet name="EEXXPPEERRTT" sheetId="3" r:id="rId2"/>
     <sheet name="profile_links" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>SKILLS</t>
   </si>
@@ -271,9 +272,6 @@
     </r>
   </si>
   <si>
-    <t>7 days left</t>
-  </si>
-  <si>
     <t>excel management software ads</t>
   </si>
   <si>
@@ -311,6 +309,42 @@
   </si>
   <si>
     <t>3. LAUNCH WORK OPPORTUNITY</t>
+  </si>
+  <si>
+    <t>features of excel invoice system</t>
+  </si>
+  <si>
+    <t>patient details via voice</t>
+  </si>
+  <si>
+    <t>print and pdf</t>
+  </si>
+  <si>
+    <t>pdf via perfect name</t>
+  </si>
+  <si>
+    <t>stock management</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add / subtract items auto via invoice </t>
+  </si>
+  <si>
+    <t>item no validation check for stock item no less than../empty input  validation/number validation</t>
+  </si>
+  <si>
+    <t>date-wise total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto date </t>
+  </si>
+  <si>
+    <t>current date conditional formatting</t>
+  </si>
+  <si>
+    <t>6 days left</t>
   </si>
 </sst>
 </file>
@@ -518,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -539,6 +573,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,6 +592,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,10 +600,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,7 +918,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,29 +932,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="M1" s="12" t="s">
+      <c r="K1" s="13"/>
+      <c r="M1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -937,10 +972,10 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="16"/>
       <c r="M2" s="2">
         <v>1</v>
       </c>
@@ -964,10 +999,10 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="16"/>
       <c r="M3" s="2">
         <v>2</v>
       </c>
@@ -1010,20 +1045,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
@@ -1035,10 +1070,10 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="14"/>
+      <c r="G10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="17"/>
       <c r="M10">
         <v>1</v>
       </c>
@@ -1081,19 +1116,19 @@
       <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -1108,99 +1143,99 @@
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="17" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="20" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="24" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
@@ -1300,7 +1335,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,16 +1348,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1333,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1355,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1371,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1396,12 +1431,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E2" s="2">
@@ -1477,4 +1512,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38840B8D-6D5F-4FA7-A1E6-0BF120F55C0F}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="80.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SKILLS.xlsx
+++ b/SKILLS.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED69935-656D-4421-8D26-3E5332AA9A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A4C9A8-8F74-4ACA-8A99-6A058E242560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{315CA266-E759-4D4A-8CBF-82D4E37E2AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="SKILL" sheetId="1" r:id="rId1"/>
-    <sheet name="EEXXPPEERRTT" sheetId="3" r:id="rId2"/>
-    <sheet name="profile_links" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="BEST_THINGS" sheetId="5" r:id="rId2"/>
+    <sheet name="EEXXPPEERRTT" sheetId="3" r:id="rId3"/>
+    <sheet name="profile_links" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>SKILLS</t>
   </si>
@@ -344,14 +345,41 @@
     <t>current date conditional formatting</t>
   </si>
   <si>
-    <t>6 days left</t>
+    <t>5 nights left</t>
+  </si>
+  <si>
+    <t>BEST THINGS</t>
+  </si>
+  <si>
+    <t>DON’T BE SHY/IF YOU WILL NOT ASK THEN U WILL NOT RECEIVE</t>
+  </si>
+  <si>
+    <t>MAKE A TEAM/FOR ANY TYPE OF WEEKLY SUGGESTION FOR ALL</t>
+  </si>
+  <si>
+    <t>LAER FROM EXPERTS MISTAKES/IF U WILL LEARN ONLY BY URS THEN U WILL BE VERY SLOW</t>
+  </si>
+  <si>
+    <t>STRONG CONNECT/NETWORK OF SUCCESSFUL PEOPLE(EG. GUFRA…)</t>
+  </si>
+  <si>
+    <t>WORK HARD</t>
+  </si>
+  <si>
+    <t>FIND GROUP IN WHICH WHAT U WANT TO BE</t>
+  </si>
+  <si>
+    <t>WORK ON WEAKNESS</t>
+  </si>
+  <si>
+    <t>Deadline - 1 JUNE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +501,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -552,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -577,11 +613,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,12 +627,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +957,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,29 +971,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="M1" s="14" t="s">
+      <c r="K1" s="14"/>
+      <c r="M1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -972,10 +1011,10 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="11"/>
       <c r="M2" s="2">
         <v>1</v>
       </c>
@@ -999,10 +1038,10 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="11"/>
       <c r="M3" s="2">
         <v>2</v>
       </c>
@@ -1045,20 +1084,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
@@ -1070,10 +1109,10 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="12"/>
       <c r="M10">
         <v>1</v>
       </c>
@@ -1081,13 +1120,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="G11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="12"/>
       <c r="M11">
         <v>2</v>
       </c>
@@ -1095,7 +1138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -1116,19 +1159,19 @@
       <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -1145,109 +1188,108 @@
       <c r="B15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="17" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
     </row>
     <row r="18" spans="3:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
     </row>
     <row r="20" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="24" spans="3:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B14">
     <sortCondition ref="B13:B14"/>
   </sortState>
-  <mergeCells count="18">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G10:H10"/>
+  <mergeCells count="19">
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C17:O18"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="M9:Q9"/>
     <mergeCell ref="A1:B1"/>
@@ -1255,11 +1297,13 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C15:O15"/>
-    <mergeCell ref="C17:O18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
     <cfRule type="iconSet" priority="7">
@@ -1330,12 +1374,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95930671-6081-41F2-AD1F-9ED771464F96}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660FDC3-40C0-431B-A663-6BEFF0CF8A83}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015BF428-8921-496F-A04C-15D75CAABF43}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="E1:H12"/>
@@ -1514,7 +1645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38840B8D-6D5F-4FA7-A1E6-0BF120F55C0F}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C10"/>
